--- a/AAII_Financials/Quarterly/CYTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CYTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>CYTO</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,60 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -742,8 +746,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -771,8 +778,11 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,8 +810,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,37 +826,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="3">
         <v>2200</v>
       </c>
-      <c r="E12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K12" s="3">
         <v>2200</v>
       </c>
-      <c r="G12" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +888,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +920,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -921,16 +944,19 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <v>200</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,37 +965,41 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -977,28 +1007,31 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1043,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1019,28 +1053,31 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3000</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1048,37 +1085,40 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3200</v>
       </c>
-      <c r="G21" s="3">
-        <v>-4200</v>
-      </c>
       <c r="H21" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-3700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
@@ -1086,48 +1126,54 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3800</v>
       </c>
-      <c r="I23" s="3">
-        <v>-3300</v>
-      </c>
       <c r="J23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-3400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1138,25 +1184,28 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1233,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1329,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1361,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1393,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1425,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1367,57 +1437,63 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3000</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1521,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1606,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1620,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12300</v>
+        <v>9200</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>12200</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>1500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6300</v>
       </c>
-      <c r="H41" s="3">
-        <v>5900</v>
-      </c>
       <c r="I41" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J41" s="3">
         <v>5700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,22 +1682,25 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
-      </c>
-      <c r="G43" s="3">
-        <v>300</v>
       </c>
       <c r="H43" s="3">
         <v>300</v>
@@ -1616,100 +1709,112 @@
         <v>300</v>
       </c>
       <c r="J43" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K43" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>600</v>
       </c>
       <c r="J45" s="3">
         <v>500</v>
       </c>
       <c r="K45" s="3">
+        <v>500</v>
+      </c>
+      <c r="L45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E46" s="3">
         <v>12600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2600</v>
       </c>
-      <c r="G46" s="3">
-        <v>6900</v>
-      </c>
       <c r="H46" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="I46" s="3">
         <v>6600</v>
       </c>
       <c r="J46" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K46" s="3">
         <v>5700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1732,18 +1837,21 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -1752,7 +1860,7 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -1761,33 +1869,36 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E49" s="3">
         <v>9900</v>
       </c>
-      <c r="E49" s="3">
-        <v>8200</v>
-      </c>
       <c r="F49" s="3">
-        <v>7400</v>
+        <v>8100</v>
       </c>
       <c r="G49" s="3">
+        <v>7300</v>
+      </c>
+      <c r="H49" s="3">
         <v>5600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3800</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1800</v>
       </c>
       <c r="J49" s="3">
         <v>1800</v>
@@ -1795,8 +1906,11 @@
       <c r="K49" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1938,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +1970,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1864,26 +1984,29 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
       </c>
       <c r="I52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="K52" s="3">
+        <v>300</v>
+      </c>
+      <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2034,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22600</v>
+        <v>25700</v>
       </c>
       <c r="E54" s="3">
+        <v>22500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>8600</v>
+      </c>
+      <c r="G54" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>12700</v>
+      </c>
+      <c r="I54" s="3">
+        <v>10700</v>
+      </c>
+      <c r="J54" s="3">
         <v>8700</v>
       </c>
-      <c r="F54" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G54" s="3">
-        <v>12800</v>
-      </c>
-      <c r="H54" s="3">
-        <v>10800</v>
-      </c>
-      <c r="I54" s="3">
-        <v>8800</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17200</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2082,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,95 +2096,105 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2062,28 +2202,31 @@
         <v>3300</v>
       </c>
       <c r="E60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1900</v>
       </c>
-      <c r="H60" s="3">
-        <v>5000</v>
-      </c>
       <c r="I60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J60" s="3">
         <v>7300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2091,11 +2234,11 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>100</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2109,39 +2252,45 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="E62" s="3">
         <v>1100</v>
       </c>
       <c r="F62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2318,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2350,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2382,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
-        <v>6800</v>
-      </c>
       <c r="I66" s="3">
-        <v>9600</v>
+        <v>6700</v>
       </c>
       <c r="J66" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K66" s="3">
         <v>12000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2430,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2460,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2492,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2524,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2556,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-174900</v>
+        <v>-178700</v>
       </c>
       <c r="E72" s="3">
-        <v>-169100</v>
+        <v>-174000</v>
       </c>
       <c r="F72" s="3">
-        <v>-166300</v>
+        <v>-168300</v>
       </c>
       <c r="G72" s="3">
-        <v>-163000</v>
+        <v>-165500</v>
       </c>
       <c r="H72" s="3">
-        <v>-159200</v>
+        <v>-162200</v>
       </c>
       <c r="I72" s="3">
-        <v>-155100</v>
+        <v>-158500</v>
       </c>
       <c r="J72" s="3">
+        <v>-154400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-152300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-150000</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2620,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2652,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2684,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18300</v>
+        <v>21800</v>
       </c>
       <c r="E76" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F76" s="3">
         <v>4900</v>
       </c>
-      <c r="F76" s="3">
-        <v>6600</v>
-      </c>
       <c r="G76" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H76" s="3">
         <v>9700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2748,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2833,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2664,8 +2863,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2895,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2927,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2959,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2991,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3023,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3071,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3101,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3133,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3165,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3213,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3243,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3275,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3307,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,46 +3339,52 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>17300</v>
+        <v>4200</v>
       </c>
       <c r="E100" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>7900</v>
-      </c>
       <c r="H100" s="3">
-        <v>4300</v>
+        <v>7800</v>
       </c>
       <c r="I100" s="3">
-        <v>5400</v>
+        <v>4200</v>
       </c>
       <c r="J100" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-6600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
@@ -3146,41 +3395,47 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E102" s="3">
         <v>12200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CYTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CYTO_QTR_FIN.xlsx
@@ -833,13 +833,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="E12" s="3">
         <v>2100</v>
       </c>
       <c r="F12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G12" s="3">
         <v>2200</v>
@@ -972,7 +972,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="E17" s="3">
         <v>3100</v>
@@ -984,7 +984,7 @@
         <v>3400</v>
       </c>
       <c r="H17" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="I17" s="3">
         <v>700</v>
@@ -1016,7 +1016,7 @@
         <v>-3400</v>
       </c>
       <c r="H18" s="3">
-        <v>-4500</v>
+        <v>-4400</v>
       </c>
       <c r="I18" s="3">
         <v>-700</v>
@@ -1053,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="F20" s="3">
         <v>-300</v>
@@ -1065,7 +1065,7 @@
         <v>300</v>
       </c>
       <c r="I20" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1085,19 +1085,19 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="F21" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="G21" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="H21" s="3">
         <v>-4100</v>
       </c>
       <c r="I21" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="J21" s="3">
         <v>-3100</v>
@@ -1146,10 +1146,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7300</v>
+        <v>-7200</v>
       </c>
       <c r="E23" s="3">
-        <v>-6000</v>
+        <v>-5900</v>
       </c>
       <c r="F23" s="3">
         <v>-2900</v>
@@ -1158,10 +1158,10 @@
         <v>-3200</v>
       </c>
       <c r="H23" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="I23" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="J23" s="3">
         <v>-3200</v>
@@ -1242,22 +1242,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7300</v>
+        <v>-7200</v>
       </c>
       <c r="E26" s="3">
-        <v>-6000</v>
+        <v>-5900</v>
       </c>
       <c r="F26" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="G26" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="H26" s="3">
         <v>-3900</v>
       </c>
       <c r="I26" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="J26" s="3">
         <v>-3200</v>
@@ -1274,22 +1274,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-7300</v>
+        <v>-7200</v>
       </c>
       <c r="E27" s="3">
-        <v>-6000</v>
+        <v>-5900</v>
       </c>
       <c r="F27" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="G27" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="H27" s="3">
         <v>-3900</v>
       </c>
       <c r="I27" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="J27" s="3">
         <v>-3200</v>
@@ -1437,7 +1437,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="F32" s="3">
         <v>300</v>
@@ -1449,7 +1449,7 @@
         <v>-300</v>
       </c>
       <c r="I32" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1466,22 +1466,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-7300</v>
+        <v>-7200</v>
       </c>
       <c r="E33" s="3">
-        <v>-6000</v>
+        <v>-5900</v>
       </c>
       <c r="F33" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="G33" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="H33" s="3">
         <v>-3900</v>
       </c>
       <c r="I33" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="J33" s="3">
         <v>-3200</v>
@@ -1530,22 +1530,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-7300</v>
+        <v>-7200</v>
       </c>
       <c r="E35" s="3">
-        <v>-6000</v>
+        <v>-5900</v>
       </c>
       <c r="F35" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="G35" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="H35" s="3">
         <v>-3900</v>
       </c>
       <c r="I35" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="J35" s="3">
         <v>-3200</v>
@@ -1627,10 +1627,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="E41" s="3">
-        <v>12200</v>
+        <v>12000</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -1639,13 +1639,13 @@
         <v>1500</v>
       </c>
       <c r="H41" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="I41" s="3">
         <v>5800</v>
       </c>
       <c r="J41" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="K41" s="3">
         <v>4800</v>
@@ -1787,25 +1787,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="E46" s="3">
-        <v>12600</v>
+        <v>12400</v>
       </c>
       <c r="F46" s="3">
         <v>400</v>
       </c>
       <c r="G46" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="H46" s="3">
         <v>6800</v>
       </c>
       <c r="I46" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="J46" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="K46" s="3">
         <v>5700</v>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -1883,19 +1883,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15800</v>
+        <v>15600</v>
       </c>
       <c r="E49" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="F49" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="G49" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="H49" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="I49" s="3">
         <v>3800</v>
@@ -2043,25 +2043,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>25700</v>
+        <v>25400</v>
       </c>
       <c r="E54" s="3">
-        <v>22500</v>
+        <v>22300</v>
       </c>
       <c r="F54" s="3">
+        <v>8500</v>
+      </c>
+      <c r="G54" s="3">
+        <v>9900</v>
+      </c>
+      <c r="H54" s="3">
+        <v>12600</v>
+      </c>
+      <c r="I54" s="3">
+        <v>10600</v>
+      </c>
+      <c r="J54" s="3">
         <v>8600</v>
-      </c>
-      <c r="G54" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H54" s="3">
-        <v>12700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>10700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>8700</v>
       </c>
       <c r="K54" s="3">
         <v>8100</v>
@@ -2109,7 +2109,7 @@
         <v>800</v>
       </c>
       <c r="F57" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="G57" s="3">
         <v>1000</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J58" s="3">
         <v>2300</v>
@@ -2173,10 +2173,10 @@
         <v>1900</v>
       </c>
       <c r="F59" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G59" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H59" s="3">
         <v>1000</v>
@@ -2202,13 +2202,13 @@
         <v>3300</v>
       </c>
       <c r="E60" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="F60" s="3">
         <v>2600</v>
       </c>
       <c r="G60" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="H60" s="3">
         <v>1900</v>
@@ -2217,7 +2217,7 @@
         <v>4900</v>
       </c>
       <c r="J60" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="K60" s="3">
         <v>10300</v>
@@ -2281,7 +2281,7 @@
         <v>1800</v>
       </c>
       <c r="J62" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K62" s="3">
         <v>1700</v>
@@ -2391,16 +2391,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E66" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="F66" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="G66" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="H66" s="3">
         <v>3000</v>
@@ -2409,7 +2409,7 @@
         <v>6700</v>
       </c>
       <c r="J66" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="K66" s="3">
         <v>12000</v>
@@ -2565,25 +2565,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-178700</v>
+        <v>-176500</v>
       </c>
       <c r="E72" s="3">
-        <v>-174000</v>
+        <v>-171900</v>
       </c>
       <c r="F72" s="3">
-        <v>-168300</v>
+        <v>-166200</v>
       </c>
       <c r="G72" s="3">
-        <v>-165500</v>
+        <v>-163500</v>
       </c>
       <c r="H72" s="3">
-        <v>-162200</v>
+        <v>-160200</v>
       </c>
       <c r="I72" s="3">
-        <v>-158500</v>
+        <v>-156500</v>
       </c>
       <c r="J72" s="3">
-        <v>-154400</v>
+        <v>-152500</v>
       </c>
       <c r="K72" s="3">
         <v>-152300</v>
@@ -2693,22 +2693,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21800</v>
+        <v>21500</v>
       </c>
       <c r="E76" s="3">
-        <v>18200</v>
+        <v>17900</v>
       </c>
       <c r="F76" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="G76" s="3">
         <v>6500</v>
       </c>
       <c r="H76" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="I76" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="J76" s="3">
         <v>-800</v>
@@ -2794,22 +2794,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-7300</v>
+        <v>-7200</v>
       </c>
       <c r="E81" s="3">
-        <v>-6000</v>
+        <v>-5900</v>
       </c>
       <c r="F81" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="G81" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="H81" s="3">
         <v>-3900</v>
       </c>
       <c r="I81" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="J81" s="3">
         <v>-3200</v>
@@ -3035,22 +3035,22 @@
         <v>-5300</v>
       </c>
       <c r="E89" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="F89" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="G89" s="3">
         <v>-3400</v>
       </c>
       <c r="H89" s="3">
-        <v>-5700</v>
+        <v>-5600</v>
       </c>
       <c r="I89" s="3">
         <v>-2100</v>
       </c>
       <c r="J89" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="K89" s="3">
         <v>-2500</v>
@@ -3174,7 +3174,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="E94" s="3">
         <v>-1700</v>
@@ -3186,7 +3186,7 @@
         <v>-1500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="I94" s="3">
         <v>-2000</v>
@@ -3348,19 +3348,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="E100" s="3">
-        <v>17200</v>
+        <v>17000</v>
       </c>
       <c r="F100" s="3">
         <v>1100</v>
       </c>
       <c r="G100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="I100" s="3">
         <v>4200</v>
@@ -3415,13 +3415,13 @@
         <v>-3000</v>
       </c>
       <c r="E102" s="3">
-        <v>12200</v>
+        <v>12000</v>
       </c>
       <c r="F102" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="G102" s="3">
-        <v>-4800</v>
+        <v>-4700</v>
       </c>
       <c r="H102" s="3">
         <v>400</v>

--- a/AAII_Financials/Quarterly/CYTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CYTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>CYTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,83 +665,87 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -749,13 +753,16 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>2200</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -781,8 +788,11 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +823,11 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,40 +840,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>3600</v>
+        <v>5500</v>
       </c>
       <c r="E12" s="3">
-        <v>2100</v>
+        <v>3400</v>
       </c>
       <c r="F12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G12" s="3">
         <v>900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L12" s="3">
         <v>2200</v>
       </c>
-      <c r="H12" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K12" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,8 +908,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,8 +943,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -947,16 +970,19 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>200</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -966,72 +992,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6900</v>
+        <v>10700</v>
       </c>
       <c r="E17" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H17" s="3">
         <v>3100</v>
       </c>
-      <c r="F17" s="3">
-        <v>2600</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>700</v>
+      </c>
+      <c r="K17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L17" s="3">
         <v>3400</v>
       </c>
-      <c r="H17" s="3">
-        <v>4400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>700</v>
-      </c>
-      <c r="J17" s="3">
-        <v>3100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-3100</v>
       </c>
-      <c r="F18" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="L18" s="3">
         <v>-3400</v>
       </c>
-      <c r="H18" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,84 +1077,91 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-2800</v>
       </c>
-      <c r="G21" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1129,51 +1169,57 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7200</v>
+        <v>-10600</v>
       </c>
       <c r="E23" s="3">
-        <v>-5900</v>
+        <v>-6700</v>
       </c>
       <c r="F23" s="3">
-        <v>-2900</v>
+        <v>-5500</v>
       </c>
       <c r="G23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-3200</v>
       </c>
-      <c r="H23" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1187,25 +1233,28 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1236,72 +1285,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7200</v>
+        <v>-10600</v>
       </c>
       <c r="E26" s="3">
-        <v>-5900</v>
+        <v>-6700</v>
       </c>
       <c r="F26" s="3">
-        <v>-2800</v>
+        <v>-5500</v>
       </c>
       <c r="G26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-3200</v>
       </c>
-      <c r="H26" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-7200</v>
+        <v>-10600</v>
       </c>
       <c r="E27" s="3">
-        <v>-5900</v>
+        <v>-6700</v>
       </c>
       <c r="F27" s="3">
-        <v>-2800</v>
+        <v>-5500</v>
       </c>
       <c r="G27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-3200</v>
       </c>
-      <c r="H27" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1332,8 +1390,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1364,8 +1425,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1396,8 +1460,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1428,72 +1495,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
-        <v>2700</v>
-      </c>
-      <c r="F32" s="3">
-        <v>300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-7200</v>
+        <v>-10600</v>
       </c>
       <c r="E33" s="3">
-        <v>-5900</v>
+        <v>-6700</v>
       </c>
       <c r="F33" s="3">
-        <v>-2800</v>
+        <v>-5500</v>
       </c>
       <c r="G33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-3200</v>
       </c>
-      <c r="H33" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1524,77 +1600,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-7200</v>
+        <v>-10600</v>
       </c>
       <c r="E35" s="3">
-        <v>-5900</v>
+        <v>-6700</v>
       </c>
       <c r="F35" s="3">
-        <v>-2800</v>
+        <v>-5500</v>
       </c>
       <c r="G35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-3200</v>
       </c>
-      <c r="H35" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1607,8 +1692,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1621,40 +1707,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9100</v>
+        <v>1000</v>
       </c>
       <c r="E41" s="3">
-        <v>12000</v>
+        <v>8400</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>11200</v>
       </c>
       <c r="G41" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>6200</v>
+        <v>1400</v>
       </c>
       <c r="I41" s="3">
         <v>5800</v>
       </c>
       <c r="J41" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K41" s="3">
         <v>5600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1685,22 +1775,25 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
       </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
-      </c>
-      <c r="G43" s="3">
-        <v>400</v>
       </c>
       <c r="H43" s="3">
         <v>300</v>
@@ -1712,22 +1805,25 @@
         <v>300</v>
       </c>
       <c r="K43" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L43" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>800</v>
+      </c>
+      <c r="E44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
@@ -1743,83 +1839,92 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
       </c>
       <c r="F45" s="3">
+        <v>300</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>500</v>
       </c>
       <c r="K45" s="3">
         <v>500</v>
       </c>
       <c r="L45" s="3">
+        <v>500</v>
+      </c>
+      <c r="M45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9800</v>
+        <v>3700</v>
       </c>
       <c r="E46" s="3">
-        <v>12400</v>
+        <v>9100</v>
       </c>
       <c r="F46" s="3">
+        <v>11600</v>
+      </c>
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
-        <v>2500</v>
-      </c>
       <c r="H46" s="3">
-        <v>6800</v>
+        <v>2400</v>
       </c>
       <c r="I46" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K46" s="3">
         <v>6500</v>
       </c>
-      <c r="J46" s="3">
-        <v>6500</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -1840,30 +1945,33 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -1872,36 +1980,39 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15600</v>
+        <v>14300</v>
       </c>
       <c r="E49" s="3">
-        <v>9800</v>
+        <v>14500</v>
       </c>
       <c r="F49" s="3">
-        <v>8000</v>
+        <v>9100</v>
       </c>
       <c r="G49" s="3">
-        <v>7200</v>
+        <v>7500</v>
       </c>
       <c r="H49" s="3">
-        <v>5500</v>
+        <v>6700</v>
       </c>
       <c r="I49" s="3">
-        <v>3800</v>
+        <v>5100</v>
       </c>
       <c r="J49" s="3">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="K49" s="3">
         <v>1800</v>
@@ -1909,8 +2020,11 @@
       <c r="L49" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1941,8 +2055,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1973,8 +2090,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1987,26 +2107,29 @@
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
       </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>300</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2037,40 +2160,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>25400</v>
+        <v>18800</v>
       </c>
       <c r="E54" s="3">
-        <v>22300</v>
+        <v>23700</v>
       </c>
       <c r="F54" s="3">
-        <v>8500</v>
+        <v>20700</v>
       </c>
       <c r="G54" s="3">
-        <v>9900</v>
+        <v>7900</v>
       </c>
       <c r="H54" s="3">
-        <v>12600</v>
+        <v>9200</v>
       </c>
       <c r="I54" s="3">
-        <v>10600</v>
+        <v>11700</v>
       </c>
       <c r="J54" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K54" s="3">
         <v>8600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17200</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2083,8 +2212,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2097,40 +2227,44 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1600</v>
+        <v>3700</v>
       </c>
       <c r="E57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1000</v>
       </c>
       <c r="H57" s="3">
         <v>900</v>
       </c>
       <c r="I57" s="3">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="J57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2138,95 +2272,104 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>600</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>500</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K58" s="3">
         <v>2300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
-        <v>1400</v>
-      </c>
       <c r="H59" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="I59" s="3">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="J59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K59" s="3">
         <v>3700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3300</v>
+        <v>4800</v>
       </c>
       <c r="E60" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F60" s="3">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="G60" s="3">
         <v>2400</v>
       </c>
       <c r="H60" s="3">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="I60" s="3">
-        <v>4900</v>
+        <v>1800</v>
       </c>
       <c r="J60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K60" s="3">
         <v>7200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2237,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2255,42 +2398,48 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3">
-        <v>1100</v>
-      </c>
       <c r="F62" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G62" s="3">
         <v>1000</v>
       </c>
       <c r="H62" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="I62" s="3">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="J62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K62" s="3">
         <v>2200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2321,8 +2470,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2353,8 +2505,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2385,40 +2540,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3900</v>
+        <v>6100</v>
       </c>
       <c r="E66" s="3">
-        <v>4300</v>
+        <v>3600</v>
       </c>
       <c r="F66" s="3">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="G66" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="H66" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="I66" s="3">
-        <v>6700</v>
+        <v>2800</v>
       </c>
       <c r="J66" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K66" s="3">
         <v>9400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2431,8 +2592,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2463,8 +2625,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2495,8 +2660,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2527,8 +2695,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2559,40 +2730,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-176500</v>
+        <v>-175500</v>
       </c>
       <c r="E72" s="3">
-        <v>-171900</v>
+        <v>-164400</v>
       </c>
       <c r="F72" s="3">
-        <v>-166200</v>
+        <v>-160200</v>
       </c>
       <c r="G72" s="3">
-        <v>-163500</v>
+        <v>-154900</v>
       </c>
       <c r="H72" s="3">
-        <v>-160200</v>
+        <v>-152300</v>
       </c>
       <c r="I72" s="3">
-        <v>-156500</v>
+        <v>-149300</v>
       </c>
       <c r="J72" s="3">
+        <v>-145900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-152500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-152300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-150000</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2623,8 +2800,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2655,8 +2835,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2687,40 +2870,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21500</v>
+        <v>12700</v>
       </c>
       <c r="E76" s="3">
-        <v>17900</v>
+        <v>20000</v>
       </c>
       <c r="F76" s="3">
-        <v>4800</v>
+        <v>16700</v>
       </c>
       <c r="G76" s="3">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="H76" s="3">
-        <v>9600</v>
+        <v>6000</v>
       </c>
       <c r="I76" s="3">
-        <v>3900</v>
+        <v>8900</v>
       </c>
       <c r="J76" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K76" s="3">
         <v>-800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2751,77 +2940,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-7200</v>
+        <v>-10600</v>
       </c>
       <c r="E81" s="3">
-        <v>-5900</v>
+        <v>-6700</v>
       </c>
       <c r="F81" s="3">
-        <v>-2800</v>
+        <v>-5500</v>
       </c>
       <c r="G81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-3200</v>
       </c>
-      <c r="H81" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2834,13 +3032,14 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -2866,8 +3065,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2898,8 +3100,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2930,8 +3135,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2962,8 +3170,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2994,8 +3205,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3026,40 +3240,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-5300</v>
+        <v>-8700</v>
       </c>
       <c r="E89" s="3">
-        <v>-3400</v>
+        <v>-4900</v>
       </c>
       <c r="F89" s="3">
-        <v>-1700</v>
+        <v>-3200</v>
       </c>
       <c r="G89" s="3">
-        <v>-3400</v>
+        <v>-1600</v>
       </c>
       <c r="H89" s="3">
-        <v>-5600</v>
+        <v>-3100</v>
       </c>
       <c r="I89" s="3">
-        <v>-2100</v>
+        <v>-5200</v>
       </c>
       <c r="J89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-4300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3072,8 +3292,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3104,8 +3325,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3136,8 +3360,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3168,40 +3395,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2100</v>
+        <v>-1500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1700</v>
+        <v>-2000</v>
       </c>
       <c r="F94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
-        <v>-1500</v>
-      </c>
       <c r="H94" s="3">
-        <v>-1700</v>
+        <v>-1400</v>
       </c>
       <c r="I94" s="3">
-        <v>-2000</v>
+        <v>-1600</v>
       </c>
       <c r="J94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3214,8 +3447,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3246,8 +3480,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3278,8 +3515,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3310,8 +3550,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3342,52 +3585,58 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4100</v>
+        <v>2800</v>
       </c>
       <c r="E100" s="3">
-        <v>17000</v>
+        <v>3800</v>
       </c>
       <c r="F100" s="3">
-        <v>1100</v>
+        <v>15900</v>
       </c>
       <c r="G100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>7700</v>
-      </c>
       <c r="I100" s="3">
-        <v>4200</v>
+        <v>7200</v>
       </c>
       <c r="J100" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K100" s="3">
         <v>5300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -3398,44 +3647,50 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3000</v>
+        <v>-7500</v>
       </c>
       <c r="E102" s="3">
-        <v>12000</v>
+        <v>-2800</v>
       </c>
       <c r="F102" s="3">
-        <v>-1400</v>
+        <v>11200</v>
       </c>
       <c r="G102" s="3">
-        <v>-4700</v>
+        <v>-1300</v>
       </c>
       <c r="H102" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CYTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CYTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>CYTO</t>
   </si>
@@ -726,8 +726,8 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>4</v>
@@ -762,7 +762,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -796,8 +796,8 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>-2200</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
@@ -847,22 +847,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="E12" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="F12" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G12" s="3">
         <v>900</v>
       </c>
       <c r="H12" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I12" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -999,22 +999,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10700</v>
+        <v>11100</v>
       </c>
       <c r="E17" s="3">
-        <v>6400</v>
+        <v>6700</v>
       </c>
       <c r="F17" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="G17" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="H17" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="I17" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="J17" s="3">
         <v>700</v>
@@ -1033,8 +1033,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-11000</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>4</v>
@@ -1083,8 +1083,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>4</v>
@@ -1118,8 +1118,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-10900</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
@@ -1189,25 +1189,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-10600</v>
+        <v>-11000</v>
       </c>
       <c r="E23" s="3">
-        <v>-6700</v>
+        <v>-7000</v>
       </c>
       <c r="F23" s="3">
-        <v>-5500</v>
+        <v>-5800</v>
       </c>
       <c r="G23" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="H23" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="I23" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="J23" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="K23" s="3">
         <v>-3200</v>
@@ -1294,25 +1294,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-10600</v>
+        <v>-11000</v>
       </c>
       <c r="E26" s="3">
-        <v>-6700</v>
+        <v>-7000</v>
       </c>
       <c r="F26" s="3">
-        <v>-5500</v>
+        <v>-5800</v>
       </c>
       <c r="G26" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="H26" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="I26" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="J26" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="K26" s="3">
         <v>-3200</v>
@@ -1329,25 +1329,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-10600</v>
+        <v>-11000</v>
       </c>
       <c r="E27" s="3">
-        <v>-6700</v>
+        <v>-7000</v>
       </c>
       <c r="F27" s="3">
-        <v>-5500</v>
+        <v>-5800</v>
       </c>
       <c r="G27" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="H27" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="I27" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="J27" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="K27" s="3">
         <v>-3200</v>
@@ -1503,8 +1503,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>4</v>
@@ -1539,25 +1539,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-10600</v>
+        <v>-11000</v>
       </c>
       <c r="E33" s="3">
-        <v>-6700</v>
+        <v>-7000</v>
       </c>
       <c r="F33" s="3">
-        <v>-5500</v>
+        <v>-5800</v>
       </c>
       <c r="G33" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="H33" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="I33" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="J33" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="K33" s="3">
         <v>-3200</v>
@@ -1609,25 +1609,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-10600</v>
+        <v>-11000</v>
       </c>
       <c r="E35" s="3">
-        <v>-6700</v>
+        <v>-7000</v>
       </c>
       <c r="F35" s="3">
-        <v>-5500</v>
+        <v>-5800</v>
       </c>
       <c r="G35" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="H35" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="I35" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="J35" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="K35" s="3">
         <v>-3200</v>
@@ -1717,10 +1717,10 @@
         <v>1000</v>
       </c>
       <c r="E41" s="3">
-        <v>8400</v>
+        <v>8800</v>
       </c>
       <c r="F41" s="3">
-        <v>11200</v>
+        <v>11700</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -1729,10 +1729,10 @@
         <v>1400</v>
       </c>
       <c r="I41" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="J41" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="K41" s="3">
         <v>5600</v>
@@ -1784,7 +1784,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -1819,7 +1819,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E44" s="3">
         <v>200</v>
@@ -1857,7 +1857,7 @@
         <v>1000</v>
       </c>
       <c r="E45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F45" s="3">
         <v>300</v>
@@ -1889,25 +1889,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="E46" s="3">
-        <v>9100</v>
+        <v>9500</v>
       </c>
       <c r="F46" s="3">
-        <v>11600</v>
+        <v>12100</v>
       </c>
       <c r="G46" s="3">
         <v>400</v>
       </c>
       <c r="H46" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="I46" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J46" s="3">
         <v>6300</v>
-      </c>
-      <c r="J46" s="3">
-        <v>6000</v>
       </c>
       <c r="K46" s="3">
         <v>6500</v>
@@ -1994,25 +1994,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14300</v>
+        <v>14900</v>
       </c>
       <c r="E49" s="3">
-        <v>14500</v>
+        <v>15100</v>
       </c>
       <c r="F49" s="3">
-        <v>9100</v>
+        <v>9500</v>
       </c>
       <c r="G49" s="3">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="H49" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="I49" s="3">
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="J49" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="K49" s="3">
         <v>1800</v>
@@ -2169,25 +2169,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18800</v>
+        <v>19500</v>
       </c>
       <c r="E54" s="3">
-        <v>23700</v>
+        <v>24600</v>
       </c>
       <c r="F54" s="3">
-        <v>20700</v>
+        <v>21600</v>
       </c>
       <c r="G54" s="3">
-        <v>7900</v>
+        <v>8300</v>
       </c>
       <c r="H54" s="3">
-        <v>9200</v>
+        <v>9600</v>
       </c>
       <c r="I54" s="3">
-        <v>11700</v>
+        <v>12200</v>
       </c>
       <c r="J54" s="3">
-        <v>9800</v>
+        <v>10200</v>
       </c>
       <c r="K54" s="3">
         <v>8600</v>
@@ -2234,7 +2234,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="E57" s="3">
         <v>1500</v>
@@ -2246,13 +2246,13 @@
         <v>1300</v>
       </c>
       <c r="H57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
-        <v>800</v>
-      </c>
       <c r="J57" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K57" s="3">
         <v>1200</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K58" s="3">
         <v>2300</v>
@@ -2307,19 +2307,19 @@
         <v>1200</v>
       </c>
       <c r="E59" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F59" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G59" s="3">
         <v>1200</v>
       </c>
       <c r="H59" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I59" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="J59" s="3">
         <v>1300</v>
@@ -2339,25 +2339,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="E60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F60" s="3">
         <v>3100</v>
       </c>
-      <c r="F60" s="3">
-        <v>3000</v>
-      </c>
       <c r="G60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
-        <v>2300</v>
-      </c>
       <c r="I60" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="J60" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="K60" s="3">
         <v>7200</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>1000</v>
       </c>
       <c r="G62" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H62" s="3">
         <v>900</v>
@@ -2549,25 +2549,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6100</v>
+        <v>6400</v>
       </c>
       <c r="E66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G66" s="3">
         <v>3600</v>
       </c>
-      <c r="F66" s="3">
-        <v>4000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>3500</v>
-      </c>
       <c r="H66" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="I66" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J66" s="3">
-        <v>6200</v>
+        <v>6500</v>
       </c>
       <c r="K66" s="3">
         <v>9400</v>
@@ -2739,25 +2739,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-175500</v>
+        <v>-182600</v>
       </c>
       <c r="E72" s="3">
-        <v>-164400</v>
+        <v>-171100</v>
       </c>
       <c r="F72" s="3">
-        <v>-160200</v>
+        <v>-166700</v>
       </c>
       <c r="G72" s="3">
-        <v>-154900</v>
+        <v>-161200</v>
       </c>
       <c r="H72" s="3">
-        <v>-152300</v>
+        <v>-158500</v>
       </c>
       <c r="I72" s="3">
-        <v>-149300</v>
+        <v>-155400</v>
       </c>
       <c r="J72" s="3">
-        <v>-145900</v>
+        <v>-151800</v>
       </c>
       <c r="K72" s="3">
         <v>-152500</v>
@@ -2879,25 +2879,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12700</v>
+        <v>13200</v>
       </c>
       <c r="E76" s="3">
-        <v>20000</v>
+        <v>20800</v>
       </c>
       <c r="F76" s="3">
-        <v>16700</v>
+        <v>17400</v>
       </c>
       <c r="G76" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="H76" s="3">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="I76" s="3">
-        <v>8900</v>
+        <v>9300</v>
       </c>
       <c r="J76" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="K76" s="3">
         <v>-800</v>
@@ -2989,25 +2989,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-10600</v>
+        <v>-11000</v>
       </c>
       <c r="E81" s="3">
-        <v>-6700</v>
+        <v>-7000</v>
       </c>
       <c r="F81" s="3">
-        <v>-5500</v>
+        <v>-5800</v>
       </c>
       <c r="G81" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="H81" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="I81" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="J81" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="K81" s="3">
         <v>-3200</v>
@@ -3249,25 +3249,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-8700</v>
+        <v>-9100</v>
       </c>
       <c r="E89" s="3">
-        <v>-4900</v>
+        <v>-5100</v>
       </c>
       <c r="F89" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="G89" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="H89" s="3">
-        <v>-3100</v>
+        <v>-3300</v>
       </c>
       <c r="I89" s="3">
-        <v>-5200</v>
+        <v>-5500</v>
       </c>
       <c r="J89" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="K89" s="3">
         <v>-4300</v>
@@ -3404,13 +3404,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E94" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G94" s="3">
         <v>-800</v>
@@ -3419,7 +3419,7 @@
         <v>-1400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="J94" s="3">
         <v>-1900</v>
@@ -3594,25 +3594,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E100" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="F100" s="3">
-        <v>15900</v>
+        <v>16500</v>
       </c>
       <c r="G100" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>7200</v>
+        <v>7500</v>
       </c>
       <c r="J100" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="K100" s="3">
         <v>5300</v>
@@ -3664,19 +3664,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-7500</v>
+        <v>-7800</v>
       </c>
       <c r="E102" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="F102" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="G102" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="H102" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="I102" s="3">
         <v>400</v>

--- a/AAII_Financials/Quarterly/CYTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CYTO_QTR_FIN.xlsx
@@ -2169,7 +2169,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19500</v>
+        <v>19600</v>
       </c>
       <c r="E54" s="3">
         <v>24600</v>
@@ -2187,7 +2187,7 @@
         <v>12200</v>
       </c>
       <c r="J54" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="K54" s="3">
         <v>8600</v>
@@ -2739,7 +2739,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-182600</v>
+        <v>-182700</v>
       </c>
       <c r="E72" s="3">
         <v>-171100</v>
@@ -2751,7 +2751,7 @@
         <v>-161200</v>
       </c>
       <c r="H72" s="3">
-        <v>-158500</v>
+        <v>-158600</v>
       </c>
       <c r="I72" s="3">
         <v>-155400</v>

--- a/AAII_Financials/Quarterly/CYTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CYTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>CYTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,77 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
@@ -747,8 +751,8 @@
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -756,16 +760,19 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2300</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2400</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -791,16 +798,19 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+        <v>800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-2300</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -826,8 +836,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,43 +854,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>5800</v>
+        <v>3800</v>
       </c>
       <c r="E12" s="3">
-        <v>3500</v>
+        <v>5900</v>
       </c>
       <c r="F12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G12" s="3">
         <v>2100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>900</v>
       </c>
-      <c r="H12" s="3">
-        <v>2100</v>
-      </c>
       <c r="I12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J12" s="3">
         <v>1400</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
       <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>1800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,31 +928,34 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -946,13 +966,16 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -973,16 +996,19 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>200</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -993,51 +1019,55 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11100</v>
+        <v>9300</v>
       </c>
       <c r="E17" s="3">
-        <v>6700</v>
+        <v>11500</v>
       </c>
       <c r="F17" s="3">
-        <v>3000</v>
+        <v>6900</v>
       </c>
       <c r="G17" s="3">
-        <v>2500</v>
+        <v>3100</v>
       </c>
       <c r="H17" s="3">
-        <v>3300</v>
+        <v>2600</v>
       </c>
       <c r="I17" s="3">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="J17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-11000</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
+        <v>-8000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-11400</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
@@ -1054,17 +1084,20 @@
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>-3100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,16 +1111,17 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
@@ -1104,25 +1138,28 @@
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+        <v>-7400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-11300</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1139,32 +1176,35 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-3100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
@@ -1172,54 +1212,60 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-11000</v>
+        <v>-7900</v>
       </c>
       <c r="E23" s="3">
-        <v>-7000</v>
+        <v>-11400</v>
       </c>
       <c r="F23" s="3">
-        <v>-5800</v>
+        <v>-7300</v>
       </c>
       <c r="G23" s="3">
-        <v>-2800</v>
+        <v>-6000</v>
       </c>
       <c r="H23" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="I23" s="3">
-        <v>-4000</v>
+        <v>-3200</v>
       </c>
       <c r="J23" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-3600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1236,25 +1282,28 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1288,78 +1337,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-11000</v>
+        <v>-7800</v>
       </c>
       <c r="E26" s="3">
-        <v>-7000</v>
+        <v>-11400</v>
       </c>
       <c r="F26" s="3">
-        <v>-5800</v>
+        <v>-7200</v>
       </c>
       <c r="G26" s="3">
-        <v>-2800</v>
+        <v>-5900</v>
       </c>
       <c r="H26" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="I26" s="3">
-        <v>-3700</v>
+        <v>-3200</v>
       </c>
       <c r="J26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-3800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-11000</v>
+        <v>-7800</v>
       </c>
       <c r="E27" s="3">
-        <v>-7000</v>
+        <v>-11400</v>
       </c>
       <c r="F27" s="3">
-        <v>-5800</v>
+        <v>-7200</v>
       </c>
       <c r="G27" s="3">
-        <v>-2800</v>
+        <v>-5900</v>
       </c>
       <c r="H27" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="I27" s="3">
-        <v>-3700</v>
+        <v>-3200</v>
       </c>
       <c r="J27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-3800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1393,8 +1451,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1428,8 +1489,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1463,8 +1527,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1498,16 +1565,19 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
@@ -1524,52 +1594,58 @@
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-11000</v>
+        <v>-7800</v>
       </c>
       <c r="E33" s="3">
-        <v>-7000</v>
+        <v>-11400</v>
       </c>
       <c r="F33" s="3">
-        <v>-5800</v>
+        <v>-7200</v>
       </c>
       <c r="G33" s="3">
-        <v>-2800</v>
+        <v>-5900</v>
       </c>
       <c r="H33" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="I33" s="3">
-        <v>-3700</v>
+        <v>-3200</v>
       </c>
       <c r="J33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-3800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1603,83 +1679,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-11000</v>
+        <v>-7800</v>
       </c>
       <c r="E35" s="3">
-        <v>-7000</v>
+        <v>-11400</v>
       </c>
       <c r="F35" s="3">
-        <v>-5800</v>
+        <v>-7200</v>
       </c>
       <c r="G35" s="3">
-        <v>-2800</v>
+        <v>-5900</v>
       </c>
       <c r="H35" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="I35" s="3">
-        <v>-3700</v>
+        <v>-3200</v>
       </c>
       <c r="J35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-3800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1693,8 +1778,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1708,43 +1794,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="E41" s="3">
-        <v>8800</v>
+        <v>1100</v>
       </c>
       <c r="F41" s="3">
-        <v>11700</v>
+        <v>9100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>12100</v>
       </c>
       <c r="H41" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="J41" s="3">
-        <v>5600</v>
+        <v>6200</v>
       </c>
       <c r="K41" s="3">
         <v>5600</v>
       </c>
       <c r="L41" s="3">
+        <v>5600</v>
+      </c>
+      <c r="M41" s="3">
         <v>4800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1778,28 +1868,31 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
+        <v>200</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
-        <v>300</v>
-      </c>
       <c r="I43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J43" s="3">
         <v>300</v>
@@ -1808,25 +1901,28 @@
         <v>300</v>
       </c>
       <c r="L43" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M43" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3">
         <v>900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
@@ -1842,84 +1938,93 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
-      </c>
-      <c r="K45" s="3">
-        <v>500</v>
       </c>
       <c r="L45" s="3">
         <v>500</v>
       </c>
       <c r="M45" s="3">
+        <v>500</v>
+      </c>
+      <c r="N45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3900</v>
+        <v>2100</v>
       </c>
       <c r="E46" s="3">
-        <v>9500</v>
+        <v>4000</v>
       </c>
       <c r="F46" s="3">
-        <v>12100</v>
+        <v>9800</v>
       </c>
       <c r="G46" s="3">
+        <v>12500</v>
+      </c>
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2500</v>
       </c>
-      <c r="I46" s="3">
-        <v>6600</v>
-      </c>
       <c r="J46" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K46" s="3">
         <v>6300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1927,7 +2032,7 @@
         <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -1948,21 +2053,24 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>500</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -1974,7 +2082,7 @@
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -1983,39 +2091,42 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14900</v>
+        <v>17000</v>
       </c>
       <c r="E49" s="3">
-        <v>15100</v>
+        <v>15300</v>
       </c>
       <c r="F49" s="3">
-        <v>9500</v>
+        <v>15600</v>
       </c>
       <c r="G49" s="3">
-        <v>7800</v>
+        <v>9800</v>
       </c>
       <c r="H49" s="3">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="I49" s="3">
-        <v>5400</v>
+        <v>7300</v>
       </c>
       <c r="J49" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K49" s="3">
         <v>3700</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1800</v>
       </c>
       <c r="L49" s="3">
         <v>1800</v>
@@ -2023,8 +2134,11 @@
       <c r="M49" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2058,8 +2172,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2093,8 +2210,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2110,26 +2230,29 @@
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>200</v>
       </c>
       <c r="K52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>300</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2163,43 +2286,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19600</v>
+        <v>19800</v>
       </c>
       <c r="E54" s="3">
-        <v>24600</v>
+        <v>20200</v>
       </c>
       <c r="F54" s="3">
-        <v>21600</v>
+        <v>25500</v>
       </c>
       <c r="G54" s="3">
-        <v>8300</v>
+        <v>22300</v>
       </c>
       <c r="H54" s="3">
-        <v>9600</v>
+        <v>8500</v>
       </c>
       <c r="I54" s="3">
-        <v>12200</v>
+        <v>9900</v>
       </c>
       <c r="J54" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K54" s="3">
         <v>10300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17200</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2213,8 +2342,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2228,148 +2358,161 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3800</v>
+        <v>3400</v>
       </c>
       <c r="E57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G57" s="3">
+        <v>800</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>900</v>
+      </c>
+      <c r="K57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
-        <v>800</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>900</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1900</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>500</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>600</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>1500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
-        <v>1800</v>
-      </c>
       <c r="G59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5000</v>
+        <v>10500</v>
       </c>
       <c r="E60" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G60" s="3">
         <v>3200</v>
       </c>
-      <c r="F60" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2500</v>
-      </c>
       <c r="H60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I60" s="3">
         <v>2400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2383,11 +2526,11 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2401,45 +2544,51 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="E62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F62" s="3">
         <v>600</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1000</v>
       </c>
       <c r="G62" s="3">
         <v>1100</v>
       </c>
       <c r="H62" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="I62" s="3">
         <v>1000</v>
       </c>
       <c r="J62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2473,8 +2622,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2508,8 +2660,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2543,43 +2698,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6400</v>
+        <v>11600</v>
       </c>
       <c r="E66" s="3">
-        <v>3800</v>
+        <v>6600</v>
       </c>
       <c r="F66" s="3">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="G66" s="3">
-        <v>3600</v>
+        <v>4300</v>
       </c>
       <c r="H66" s="3">
-        <v>3300</v>
+        <v>3700</v>
       </c>
       <c r="I66" s="3">
-        <v>2900</v>
+        <v>3400</v>
       </c>
       <c r="J66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K66" s="3">
         <v>6500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2593,8 +2754,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2628,8 +2790,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2663,8 +2828,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2698,8 +2866,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2733,43 +2904,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-182700</v>
+        <v>-195800</v>
       </c>
       <c r="E72" s="3">
-        <v>-171100</v>
+        <v>-188700</v>
       </c>
       <c r="F72" s="3">
-        <v>-166700</v>
+        <v>-176800</v>
       </c>
       <c r="G72" s="3">
-        <v>-161200</v>
+        <v>-172200</v>
       </c>
       <c r="H72" s="3">
-        <v>-158600</v>
+        <v>-166600</v>
       </c>
       <c r="I72" s="3">
-        <v>-155400</v>
+        <v>-163800</v>
       </c>
       <c r="J72" s="3">
+        <v>-160500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-151800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-152500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-152300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-150000</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2803,8 +2980,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2838,8 +3018,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2873,43 +3056,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13200</v>
+        <v>8200</v>
       </c>
       <c r="E76" s="3">
-        <v>20800</v>
+        <v>13600</v>
       </c>
       <c r="F76" s="3">
-        <v>17400</v>
+        <v>21500</v>
       </c>
       <c r="G76" s="3">
-        <v>4600</v>
+        <v>18000</v>
       </c>
       <c r="H76" s="3">
-        <v>6300</v>
+        <v>4800</v>
       </c>
       <c r="I76" s="3">
-        <v>9300</v>
+        <v>6500</v>
       </c>
       <c r="J76" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K76" s="3">
         <v>3800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2943,83 +3132,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-11000</v>
+        <v>-7800</v>
       </c>
       <c r="E81" s="3">
-        <v>-7000</v>
+        <v>-11400</v>
       </c>
       <c r="F81" s="3">
-        <v>-5800</v>
+        <v>-7200</v>
       </c>
       <c r="G81" s="3">
-        <v>-2800</v>
+        <v>-5900</v>
       </c>
       <c r="H81" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="I81" s="3">
-        <v>-3700</v>
+        <v>-3200</v>
       </c>
       <c r="J81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-3800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3033,8 +3231,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3042,7 +3241,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -3068,8 +3267,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3103,8 +3305,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3138,8 +3343,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3173,8 +3381,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3208,8 +3419,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3243,43 +3457,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-9100</v>
+        <v>-6000</v>
       </c>
       <c r="E89" s="3">
-        <v>-5100</v>
+        <v>-9400</v>
       </c>
       <c r="F89" s="3">
-        <v>-3300</v>
+        <v>-5300</v>
       </c>
       <c r="G89" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="H89" s="3">
         <v>-1700</v>
       </c>
-      <c r="H89" s="3">
-        <v>-3300</v>
-      </c>
       <c r="I89" s="3">
-        <v>-5500</v>
+        <v>-3400</v>
       </c>
       <c r="J89" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3293,8 +3513,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3328,8 +3549,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3363,8 +3587,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3398,8 +3625,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3407,34 +3637,37 @@
         <v>-1600</v>
       </c>
       <c r="E94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2100</v>
       </c>
-      <c r="F94" s="3">
-        <v>-1600</v>
-      </c>
       <c r="G94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
-        <v>-1400</v>
-      </c>
       <c r="I94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3448,8 +3681,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3483,8 +3717,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3518,8 +3755,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3553,8 +3793,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3588,43 +3831,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2900</v>
+        <v>7000</v>
       </c>
       <c r="E100" s="3">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="F100" s="3">
-        <v>16500</v>
+        <v>4100</v>
       </c>
       <c r="G100" s="3">
+        <v>17100</v>
+      </c>
+      <c r="H100" s="3">
         <v>1100</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
-        <v>7500</v>
+        <v>200</v>
       </c>
       <c r="J100" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K100" s="3">
         <v>4100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3632,14 +3881,14 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -3650,47 +3899,53 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-7800</v>
+        <v>-700</v>
       </c>
       <c r="E102" s="3">
-        <v>-2900</v>
+        <v>-8000</v>
       </c>
       <c r="F102" s="3">
-        <v>11600</v>
+        <v>-3000</v>
       </c>
       <c r="G102" s="3">
+        <v>12000</v>
+      </c>
+      <c r="H102" s="3">
         <v>-1400</v>
       </c>
-      <c r="H102" s="3">
-        <v>-4600</v>
-      </c>
       <c r="I102" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CYTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CYTO_QTR_FIN.xlsx
@@ -772,7 +772,7 @@
         <v>500</v>
       </c>
       <c r="E9" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -807,10 +807,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E10" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -861,19 +861,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E12" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="F12" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="G12" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H12" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I12" s="3">
         <v>2200</v>
@@ -1026,25 +1026,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9300</v>
+        <v>9600</v>
       </c>
       <c r="E17" s="3">
-        <v>11500</v>
+        <v>11800</v>
       </c>
       <c r="F17" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="G17" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="H17" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I17" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J17" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="K17" s="3">
         <v>700</v>
@@ -1064,10 +1064,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-8000</v>
+        <v>-8300</v>
       </c>
       <c r="E18" s="3">
-        <v>-11400</v>
+        <v>-11700</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
@@ -1156,10 +1156,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-7400</v>
+        <v>-7600</v>
       </c>
       <c r="E21" s="3">
-        <v>-11300</v>
+        <v>-11600</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1232,25 +1232,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7900</v>
+        <v>-8100</v>
       </c>
       <c r="E23" s="3">
-        <v>-11400</v>
+        <v>-11700</v>
       </c>
       <c r="F23" s="3">
-        <v>-7300</v>
+        <v>-7500</v>
       </c>
       <c r="G23" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="H23" s="3">
         <v>-2900</v>
       </c>
       <c r="I23" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="J23" s="3">
-        <v>-4100</v>
+        <v>-4300</v>
       </c>
       <c r="K23" s="3">
         <v>-3600</v>
@@ -1270,7 +1270,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1346,25 +1346,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7800</v>
+        <v>-8100</v>
       </c>
       <c r="E26" s="3">
-        <v>-11400</v>
+        <v>-11700</v>
       </c>
       <c r="F26" s="3">
-        <v>-7200</v>
+        <v>-7500</v>
       </c>
       <c r="G26" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="H26" s="3">
         <v>-2900</v>
       </c>
       <c r="I26" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="J26" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="K26" s="3">
         <v>-3800</v>
@@ -1384,25 +1384,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-7800</v>
+        <v>-8100</v>
       </c>
       <c r="E27" s="3">
-        <v>-11400</v>
+        <v>-11700</v>
       </c>
       <c r="F27" s="3">
-        <v>-7200</v>
+        <v>-7500</v>
       </c>
       <c r="G27" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="H27" s="3">
         <v>-2900</v>
       </c>
       <c r="I27" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="J27" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="K27" s="3">
         <v>-3800</v>
@@ -1612,25 +1612,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-7800</v>
+        <v>-8100</v>
       </c>
       <c r="E33" s="3">
-        <v>-11400</v>
+        <v>-11700</v>
       </c>
       <c r="F33" s="3">
-        <v>-7200</v>
+        <v>-7500</v>
       </c>
       <c r="G33" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="H33" s="3">
         <v>-2900</v>
       </c>
       <c r="I33" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="J33" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="K33" s="3">
         <v>-3800</v>
@@ -1688,25 +1688,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-7800</v>
+        <v>-8100</v>
       </c>
       <c r="E35" s="3">
-        <v>-11400</v>
+        <v>-11700</v>
       </c>
       <c r="F35" s="3">
-        <v>-7200</v>
+        <v>-7500</v>
       </c>
       <c r="G35" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="H35" s="3">
         <v>-2900</v>
       </c>
       <c r="I35" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="J35" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="K35" s="3">
         <v>-3800</v>
@@ -1807,10 +1807,10 @@
         <v>1100</v>
       </c>
       <c r="F41" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="G41" s="3">
-        <v>12100</v>
+        <v>12400</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>1500</v>
       </c>
       <c r="J41" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="K41" s="3">
         <v>5600</v>
@@ -1953,7 +1953,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E45" s="3">
         <v>1100</v>
@@ -1994,22 +1994,22 @@
         <v>2100</v>
       </c>
       <c r="E46" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="F46" s="3">
-        <v>9800</v>
+        <v>10100</v>
       </c>
       <c r="G46" s="3">
-        <v>12500</v>
+        <v>12800</v>
       </c>
       <c r="H46" s="3">
         <v>400</v>
       </c>
       <c r="I46" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="J46" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="K46" s="3">
         <v>6300</v>
@@ -2067,7 +2067,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
         <v>600</v>
@@ -2105,25 +2105,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="E49" s="3">
-        <v>15300</v>
+        <v>15800</v>
       </c>
       <c r="F49" s="3">
-        <v>15600</v>
+        <v>16100</v>
       </c>
       <c r="G49" s="3">
-        <v>9800</v>
+        <v>10100</v>
       </c>
       <c r="H49" s="3">
-        <v>8000</v>
+        <v>8300</v>
       </c>
       <c r="I49" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="J49" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="K49" s="3">
         <v>3700</v>
@@ -2295,25 +2295,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19800</v>
+        <v>20400</v>
       </c>
       <c r="E54" s="3">
-        <v>20200</v>
+        <v>20800</v>
       </c>
       <c r="F54" s="3">
-        <v>25500</v>
+        <v>26200</v>
       </c>
       <c r="G54" s="3">
-        <v>22300</v>
+        <v>23000</v>
       </c>
       <c r="H54" s="3">
-        <v>8500</v>
+        <v>8800</v>
       </c>
       <c r="I54" s="3">
-        <v>9900</v>
+        <v>10200</v>
       </c>
       <c r="J54" s="3">
-        <v>12600</v>
+        <v>13000</v>
       </c>
       <c r="K54" s="3">
         <v>10300</v>
@@ -2365,10 +2365,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="E57" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="F57" s="3">
         <v>1600</v>
@@ -2377,7 +2377,7 @@
         <v>800</v>
       </c>
       <c r="H57" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I57" s="3">
         <v>1000</v>
@@ -2403,7 +2403,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2444,19 +2444,19 @@
         <v>2100</v>
       </c>
       <c r="E59" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F59" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G59" s="3">
         <v>1900</v>
       </c>
       <c r="H59" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="I59" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J59" s="3">
         <v>1000</v>
@@ -2479,25 +2479,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10500</v>
+        <v>10800</v>
       </c>
       <c r="E60" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="F60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G60" s="3">
         <v>3300</v>
       </c>
-      <c r="G60" s="3">
-        <v>3200</v>
-      </c>
       <c r="H60" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I60" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="J60" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K60" s="3">
         <v>4700</v>
@@ -2707,25 +2707,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11600</v>
+        <v>11900</v>
       </c>
       <c r="E66" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="F66" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="G66" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="H66" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="I66" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J66" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="K66" s="3">
         <v>6500</v>
@@ -2913,25 +2913,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-195800</v>
+        <v>-201700</v>
       </c>
       <c r="E72" s="3">
-        <v>-188700</v>
+        <v>-194400</v>
       </c>
       <c r="F72" s="3">
-        <v>-176800</v>
+        <v>-182100</v>
       </c>
       <c r="G72" s="3">
-        <v>-172200</v>
+        <v>-177400</v>
       </c>
       <c r="H72" s="3">
-        <v>-166600</v>
+        <v>-171600</v>
       </c>
       <c r="I72" s="3">
-        <v>-163800</v>
+        <v>-168700</v>
       </c>
       <c r="J72" s="3">
-        <v>-160500</v>
+        <v>-165400</v>
       </c>
       <c r="K72" s="3">
         <v>-151800</v>
@@ -3065,25 +3065,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="E76" s="3">
-        <v>13600</v>
+        <v>14000</v>
       </c>
       <c r="F76" s="3">
-        <v>21500</v>
+        <v>22200</v>
       </c>
       <c r="G76" s="3">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="H76" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="I76" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="J76" s="3">
-        <v>9600</v>
+        <v>9900</v>
       </c>
       <c r="K76" s="3">
         <v>3800</v>
@@ -3184,25 +3184,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-7800</v>
+        <v>-8100</v>
       </c>
       <c r="E81" s="3">
-        <v>-11400</v>
+        <v>-11700</v>
       </c>
       <c r="F81" s="3">
-        <v>-7200</v>
+        <v>-7500</v>
       </c>
       <c r="G81" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="H81" s="3">
         <v>-2900</v>
       </c>
       <c r="I81" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="J81" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="K81" s="3">
         <v>-3800</v>
@@ -3466,25 +3466,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="E89" s="3">
-        <v>-9400</v>
+        <v>-9700</v>
       </c>
       <c r="F89" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="G89" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="H89" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="I89" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="J89" s="3">
-        <v>-5600</v>
+        <v>-5800</v>
       </c>
       <c r="K89" s="3">
         <v>-2000</v>
@@ -3520,25 +3520,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3634,13 +3634,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="F94" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="G94" s="3">
         <v>-1700</v>
@@ -3652,7 +3652,7 @@
         <v>-1500</v>
       </c>
       <c r="J94" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="K94" s="3">
         <v>-1900</v>
@@ -3840,25 +3840,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="E100" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="F100" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="G100" s="3">
-        <v>17100</v>
+        <v>17600</v>
       </c>
       <c r="H100" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I100" s="3">
         <v>200</v>
       </c>
       <c r="J100" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="K100" s="3">
         <v>4100</v>
@@ -3919,19 +3919,19 @@
         <v>-700</v>
       </c>
       <c r="E102" s="3">
-        <v>-8000</v>
+        <v>-8300</v>
       </c>
       <c r="F102" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="G102" s="3">
-        <v>12000</v>
+        <v>12400</v>
       </c>
       <c r="H102" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="I102" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="J102" s="3">
         <v>400</v>

--- a/AAII_Financials/Quarterly/CYTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CYTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>CYTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,84 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="E8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
@@ -754,8 +758,8 @@
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -763,20 +767,23 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>600</v>
+      </c>
+      <c r="E9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2500</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
@@ -801,20 +808,23 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E10" s="3">
         <v>900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-2400</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
@@ -839,8 +849,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -855,46 +868,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>3900</v>
+        <v>22300</v>
       </c>
       <c r="E12" s="3">
-        <v>6100</v>
+        <v>4000</v>
       </c>
       <c r="F12" s="3">
-        <v>3700</v>
+        <v>5600</v>
       </c>
       <c r="G12" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H12" s="3">
         <v>2200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N12" s="3">
         <v>2200</v>
       </c>
-      <c r="J12" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M12" s="3">
-        <v>2200</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -931,16 +948,19 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>800</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+        <v>1100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>900</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
@@ -957,8 +977,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -969,17 +989,20 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
@@ -999,16 +1022,19 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>200</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,57 +1046,61 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9600</v>
+        <v>29900</v>
       </c>
       <c r="E17" s="3">
-        <v>11800</v>
+        <v>9900</v>
       </c>
       <c r="F17" s="3">
-        <v>7100</v>
+        <v>11700</v>
       </c>
       <c r="G17" s="3">
+        <v>7300</v>
+      </c>
+      <c r="H17" s="3">
         <v>3200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2700</v>
       </c>
-      <c r="I17" s="3">
-        <v>3500</v>
-      </c>
       <c r="J17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K17" s="3">
         <v>4500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-8300</v>
+        <v>-29600</v>
       </c>
       <c r="E18" s="3">
-        <v>-11700</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
+        <v>-8500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-11600</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
@@ -1087,17 +1117,20 @@
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1112,8 +1145,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1121,10 +1155,10 @@
         <v>600</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
+        <v>600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
@@ -1141,29 +1175,32 @@
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-7600</v>
+        <v>-28900</v>
       </c>
       <c r="E21" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-11600</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1179,35 +1216,38 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-3100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
@@ -1215,66 +1255,72 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-8100</v>
+        <v>-30100</v>
       </c>
       <c r="E23" s="3">
-        <v>-11700</v>
+        <v>-8300</v>
       </c>
       <c r="F23" s="3">
-        <v>-7500</v>
+        <v>-11600</v>
       </c>
       <c r="G23" s="3">
-        <v>-6100</v>
+        <v>-7700</v>
       </c>
       <c r="H23" s="3">
-        <v>-2900</v>
+        <v>-6300</v>
       </c>
       <c r="I23" s="3">
-        <v>-3300</v>
+        <v>-3000</v>
       </c>
       <c r="J23" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-4300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1285,25 +1331,28 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1340,84 +1389,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-8100</v>
+        <v>-30000</v>
       </c>
       <c r="E26" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-11700</v>
       </c>
-      <c r="F26" s="3">
-        <v>-7500</v>
-      </c>
       <c r="G26" s="3">
-        <v>-6100</v>
+        <v>-7600</v>
       </c>
       <c r="H26" s="3">
-        <v>-2900</v>
+        <v>-6300</v>
       </c>
       <c r="I26" s="3">
-        <v>-3300</v>
+        <v>-3000</v>
       </c>
       <c r="J26" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-4000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-8100</v>
+        <v>-30000</v>
       </c>
       <c r="E27" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-11700</v>
       </c>
-      <c r="F27" s="3">
-        <v>-7500</v>
-      </c>
       <c r="G27" s="3">
-        <v>-6100</v>
+        <v>-7600</v>
       </c>
       <c r="H27" s="3">
-        <v>-2900</v>
+        <v>-6300</v>
       </c>
       <c r="I27" s="3">
-        <v>-3300</v>
+        <v>-3000</v>
       </c>
       <c r="J27" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-4000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1454,8 +1512,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1492,8 +1553,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1594,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1568,8 +1635,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1577,10 +1647,10 @@
         <v>-600</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
+        <v>-600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>4</v>
@@ -1597,55 +1667,61 @@
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-8100</v>
+        <v>-30000</v>
       </c>
       <c r="E33" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-11700</v>
       </c>
-      <c r="F33" s="3">
-        <v>-7500</v>
-      </c>
       <c r="G33" s="3">
-        <v>-6100</v>
+        <v>-7600</v>
       </c>
       <c r="H33" s="3">
-        <v>-2900</v>
+        <v>-6300</v>
       </c>
       <c r="I33" s="3">
-        <v>-3300</v>
+        <v>-3000</v>
       </c>
       <c r="J33" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-4000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1682,89 +1758,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-8100</v>
+        <v>-30000</v>
       </c>
       <c r="E35" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-11700</v>
       </c>
-      <c r="F35" s="3">
-        <v>-7500</v>
-      </c>
       <c r="G35" s="3">
-        <v>-6100</v>
+        <v>-7600</v>
       </c>
       <c r="H35" s="3">
-        <v>-2900</v>
+        <v>-6300</v>
       </c>
       <c r="I35" s="3">
-        <v>-3300</v>
+        <v>-3000</v>
       </c>
       <c r="J35" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-4000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1779,8 +1864,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1795,46 +1881,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="F41" s="3">
-        <v>9400</v>
-      </c>
       <c r="G41" s="3">
-        <v>12400</v>
+        <v>9600</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>12700</v>
       </c>
       <c r="I41" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K41" s="3">
         <v>6400</v>
-      </c>
-      <c r="K41" s="3">
-        <v>5600</v>
       </c>
       <c r="L41" s="3">
         <v>5600</v>
       </c>
       <c r="M41" s="3">
+        <v>5600</v>
+      </c>
+      <c r="N41" s="3">
         <v>4800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1871,31 +1961,34 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3">
-        <v>1000</v>
-      </c>
       <c r="F43" s="3">
+        <v>800</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
-      </c>
-      <c r="J43" s="3">
-        <v>300</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
@@ -1904,28 +1997,31 @@
         <v>300</v>
       </c>
       <c r="M43" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N43" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3">
-        <v>900</v>
-      </c>
       <c r="F44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
       </c>
@@ -1941,90 +2037,99 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
-        <v>1100</v>
-      </c>
       <c r="F45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
-      </c>
-      <c r="L45" s="3">
-        <v>500</v>
       </c>
       <c r="M45" s="3">
         <v>500</v>
       </c>
       <c r="N45" s="3">
+        <v>500</v>
+      </c>
+      <c r="O45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E46" s="3">
-        <v>4200</v>
+        <v>2200</v>
       </c>
       <c r="F46" s="3">
-        <v>10100</v>
+        <v>4600</v>
       </c>
       <c r="G46" s="3">
-        <v>12800</v>
+        <v>10400</v>
       </c>
       <c r="H46" s="3">
+        <v>13200</v>
+      </c>
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
-        <v>2600</v>
-      </c>
       <c r="J46" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K46" s="3">
         <v>7000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2035,7 +2140,7 @@
         <v>200</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -2056,27 +2161,30 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E48" s="3">
         <v>600</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -2085,7 +2193,7 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2094,42 +2202,45 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17500</v>
+        <v>4400</v>
       </c>
       <c r="E49" s="3">
-        <v>15800</v>
+        <v>17900</v>
       </c>
       <c r="F49" s="3">
-        <v>16100</v>
+        <v>16200</v>
       </c>
       <c r="G49" s="3">
-        <v>10100</v>
+        <v>16500</v>
       </c>
       <c r="H49" s="3">
-        <v>8300</v>
+        <v>10300</v>
       </c>
       <c r="I49" s="3">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="J49" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K49" s="3">
         <v>5700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3700</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1800</v>
       </c>
       <c r="M49" s="3">
         <v>1800</v>
@@ -2137,8 +2248,11 @@
       <c r="N49" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2175,8 +2289,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2213,8 +2330,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2233,26 +2353,29 @@
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>200</v>
       </c>
       <c r="L52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>300</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2289,46 +2412,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20400</v>
+        <v>7100</v>
       </c>
       <c r="E54" s="3">
-        <v>20800</v>
+        <v>20900</v>
       </c>
       <c r="F54" s="3">
-        <v>26200</v>
+        <v>21700</v>
       </c>
       <c r="G54" s="3">
-        <v>23000</v>
+        <v>26900</v>
       </c>
       <c r="H54" s="3">
-        <v>8800</v>
+        <v>23600</v>
       </c>
       <c r="I54" s="3">
-        <v>10200</v>
+        <v>9000</v>
       </c>
       <c r="J54" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K54" s="3">
         <v>13000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17200</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2343,8 +2472,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2359,160 +2489,173 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3500</v>
+        <v>5600</v>
       </c>
       <c r="E57" s="3">
-        <v>4100</v>
+        <v>3600</v>
       </c>
       <c r="F57" s="3">
-        <v>1600</v>
+        <v>4200</v>
       </c>
       <c r="G57" s="3">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="H57" s="3">
+        <v>900</v>
+      </c>
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
-        <v>1000</v>
-      </c>
       <c r="J57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5200</v>
+        <v>6600</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>1500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="E59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
-        <v>1900</v>
-      </c>
       <c r="H59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10800</v>
+        <v>14600</v>
       </c>
       <c r="E60" s="3">
-        <v>5400</v>
+        <v>11100</v>
       </c>
       <c r="F60" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H60" s="3">
         <v>3400</v>
       </c>
-      <c r="G60" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
-        <v>2500</v>
-      </c>
       <c r="J60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2529,11 +2672,11 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>100</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2547,48 +2690,54 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1400</v>
       </c>
-      <c r="F62" s="3">
-        <v>600</v>
-      </c>
       <c r="G62" s="3">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="H62" s="3">
         <v>1100</v>
       </c>
       <c r="I62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J62" s="3">
         <v>1000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2625,8 +2774,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2663,8 +2815,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2701,46 +2856,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11900</v>
+        <v>16600</v>
       </c>
       <c r="E66" s="3">
-        <v>6800</v>
+        <v>12200</v>
       </c>
       <c r="F66" s="3">
-        <v>4000</v>
+        <v>6900</v>
       </c>
       <c r="G66" s="3">
-        <v>4500</v>
+        <v>4100</v>
       </c>
       <c r="H66" s="3">
-        <v>3800</v>
+        <v>4600</v>
       </c>
       <c r="I66" s="3">
-        <v>3500</v>
+        <v>3900</v>
       </c>
       <c r="J66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K66" s="3">
         <v>3100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2755,8 +2916,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2793,8 +2955,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2831,8 +2996,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2869,8 +3037,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2907,46 +3078,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-201700</v>
+        <v>-228100</v>
       </c>
       <c r="E72" s="3">
-        <v>-194400</v>
+        <v>-206800</v>
       </c>
       <c r="F72" s="3">
-        <v>-182100</v>
+        <v>-198900</v>
       </c>
       <c r="G72" s="3">
-        <v>-177400</v>
+        <v>-186700</v>
       </c>
       <c r="H72" s="3">
-        <v>-171600</v>
+        <v>-181900</v>
       </c>
       <c r="I72" s="3">
-        <v>-168700</v>
+        <v>-175900</v>
       </c>
       <c r="J72" s="3">
+        <v>-173000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-165400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-151800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-152500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-152300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-150000</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2983,8 +3160,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3021,8 +3201,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3059,46 +3242,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8500</v>
+        <v>-9400</v>
       </c>
       <c r="E76" s="3">
-        <v>14000</v>
+        <v>8700</v>
       </c>
       <c r="F76" s="3">
-        <v>22200</v>
+        <v>14800</v>
       </c>
       <c r="G76" s="3">
-        <v>18500</v>
+        <v>22700</v>
       </c>
       <c r="H76" s="3">
-        <v>4900</v>
+        <v>19000</v>
       </c>
       <c r="I76" s="3">
-        <v>6700</v>
+        <v>5100</v>
       </c>
       <c r="J76" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K76" s="3">
         <v>9900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3135,89 +3324,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-8100</v>
+        <v>-30000</v>
       </c>
       <c r="E81" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-11700</v>
       </c>
-      <c r="F81" s="3">
-        <v>-7500</v>
-      </c>
       <c r="G81" s="3">
-        <v>-6100</v>
+        <v>-7600</v>
       </c>
       <c r="H81" s="3">
-        <v>-2900</v>
+        <v>-6300</v>
       </c>
       <c r="I81" s="3">
-        <v>-3300</v>
+        <v>-3000</v>
       </c>
       <c r="J81" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-4000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3232,8 +3430,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3244,7 +3443,7 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -3270,8 +3469,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3308,8 +3510,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3346,8 +3551,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3384,8 +3592,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3422,8 +3633,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3460,46 +3674,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-6200</v>
+        <v>-9800</v>
       </c>
       <c r="E89" s="3">
-        <v>-9700</v>
+        <v>-6300</v>
       </c>
       <c r="F89" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="O89" s="3">
         <v>-5400</v>
       </c>
-      <c r="G89" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-5400</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3514,35 +3734,36 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1600</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -3552,8 +3773,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3590,8 +3814,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3628,46 +3855,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1700</v>
+        <v>-2400</v>
       </c>
       <c r="E94" s="3">
         <v>-1700</v>
       </c>
       <c r="F94" s="3">
-        <v>-2200</v>
+        <v>-1700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1700</v>
+        <v>-2300</v>
       </c>
       <c r="H94" s="3">
-        <v>-800</v>
+        <v>-1800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1500</v>
+        <v>-900</v>
       </c>
       <c r="J94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3682,8 +3915,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3720,8 +3954,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3758,8 +3995,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3796,8 +4036,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3834,46 +4077,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>7200</v>
+        <v>11100</v>
       </c>
       <c r="E100" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F100" s="3">
         <v>3100</v>
       </c>
-      <c r="F100" s="3">
-        <v>4200</v>
-      </c>
       <c r="G100" s="3">
-        <v>17600</v>
+        <v>4400</v>
       </c>
       <c r="H100" s="3">
+        <v>18000</v>
+      </c>
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>8000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3884,14 +4133,14 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -3902,50 +4151,56 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
-        <v>-8300</v>
-      </c>
       <c r="F102" s="3">
-        <v>-3100</v>
+        <v>-8500</v>
       </c>
       <c r="G102" s="3">
-        <v>12400</v>
+        <v>-3200</v>
       </c>
       <c r="H102" s="3">
+        <v>12700</v>
+      </c>
+      <c r="I102" s="3">
         <v>-1500</v>
       </c>
-      <c r="I102" s="3">
-        <v>-4900</v>
-      </c>
       <c r="J102" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CYTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CYTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>CYTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,91 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
@@ -761,8 +765,8 @@
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -770,23 +774,26 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
         <v>600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2500</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
@@ -811,23 +818,26 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E10" s="3">
         <v>-200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-2400</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
@@ -852,8 +862,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -869,49 +882,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>22300</v>
+        <v>2500</v>
       </c>
       <c r="E12" s="3">
+        <v>22100</v>
+      </c>
+      <c r="F12" s="3">
         <v>4000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1400</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
       <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>1800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -951,20 +968,23 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>1100</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="3">
         <v>900</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -980,8 +1000,8 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -992,20 +1012,23 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
@@ -1025,16 +1048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>200</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,64 +1073,68 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>29900</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>9900</v>
+        <v>29800</v>
       </c>
       <c r="F17" s="3">
+        <v>9800</v>
+      </c>
+      <c r="G17" s="3">
         <v>11700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-29600</v>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-8500</v>
+        <v>-29400</v>
       </c>
       <c r="F18" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-11600</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1120,17 +1150,20 @@
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>-3100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1146,22 +1179,23 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>600</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>600</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
+        <v>600</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
@@ -1178,31 +1212,34 @@
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-28900</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-7800</v>
+        <v>-28800</v>
       </c>
       <c r="F21" s="3">
-        <v>-11600</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+        <v>-7900</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-11500</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
@@ -1219,38 +1256,41 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-3100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
         <v>1000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
@@ -1258,60 +1298,66 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-30100</v>
+        <v>-6100</v>
       </c>
       <c r="E23" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-8300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11600</v>
       </c>
-      <c r="G23" s="3">
-        <v>-7700</v>
-      </c>
       <c r="H23" s="3">
-        <v>-6300</v>
+        <v>-7600</v>
       </c>
       <c r="I23" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-3000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1319,11 +1365,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1334,25 +1380,28 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1392,90 +1441,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-30000</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>-8300</v>
+        <v>-29900</v>
       </c>
       <c r="F26" s="3">
-        <v>-11700</v>
+        <v>-8200</v>
       </c>
       <c r="G26" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="H26" s="3">
         <v>-7600</v>
       </c>
-      <c r="H26" s="3">
-        <v>-6300</v>
-      </c>
       <c r="I26" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-3000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-30000</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>-8300</v>
+        <v>-29900</v>
       </c>
       <c r="F27" s="3">
-        <v>-11700</v>
+        <v>-8200</v>
       </c>
       <c r="G27" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="H27" s="3">
         <v>-7600</v>
       </c>
-      <c r="H27" s="3">
-        <v>-6300</v>
-      </c>
       <c r="I27" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-3000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1515,8 +1573,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1556,8 +1617,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1597,8 +1661,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1638,22 +1705,25 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-600</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>-600</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
+        <v>-600</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
@@ -1670,58 +1740,64 @@
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-30000</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>-8300</v>
+        <v>-29900</v>
       </c>
       <c r="F33" s="3">
-        <v>-11700</v>
+        <v>-8200</v>
       </c>
       <c r="G33" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="H33" s="3">
         <v>-7600</v>
       </c>
-      <c r="H33" s="3">
-        <v>-6300</v>
-      </c>
       <c r="I33" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-3000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1761,95 +1837,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-30000</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
-        <v>-8300</v>
+        <v>-29900</v>
       </c>
       <c r="F35" s="3">
-        <v>-11700</v>
+        <v>-8200</v>
       </c>
       <c r="G35" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="H35" s="3">
         <v>-7600</v>
       </c>
-      <c r="H35" s="3">
-        <v>-6300</v>
-      </c>
       <c r="I35" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-3000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1865,8 +1950,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1882,49 +1968,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
-        <v>9600</v>
-      </c>
       <c r="H41" s="3">
+        <v>9500</v>
+      </c>
+      <c r="I41" s="3">
         <v>12700</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>1600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6400</v>
-      </c>
-      <c r="L41" s="3">
-        <v>5600</v>
       </c>
       <c r="M41" s="3">
         <v>5600</v>
       </c>
       <c r="N41" s="3">
+        <v>5600</v>
+      </c>
+      <c r="O41" s="3">
         <v>4800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1964,8 +2054,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1973,25 +2066,25 @@
         <v>900</v>
       </c>
       <c r="E43" s="3">
+        <v>900</v>
+      </c>
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
-      </c>
-      <c r="K43" s="3">
-        <v>300</v>
       </c>
       <c r="L43" s="3">
         <v>300</v>
@@ -2000,31 +2093,34 @@
         <v>300</v>
       </c>
       <c r="N43" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O43" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3">
-        <v>1000</v>
-      </c>
       <c r="G44" s="3">
+        <v>900</v>
+      </c>
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2040,96 +2136,105 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>500</v>
       </c>
       <c r="N45" s="3">
         <v>500</v>
       </c>
       <c r="O45" s="3">
+        <v>500</v>
+      </c>
+      <c r="P45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E46" s="3">
         <v>2000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4600</v>
       </c>
-      <c r="G46" s="3">
-        <v>10400</v>
-      </c>
       <c r="H46" s="3">
-        <v>13200</v>
+        <v>10300</v>
       </c>
       <c r="I46" s="3">
+        <v>13100</v>
+      </c>
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2143,7 +2248,7 @@
         <v>200</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -2164,30 +2269,33 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>400</v>
+      </c>
+      <c r="E48" s="3">
         <v>500</v>
-      </c>
-      <c r="E48" s="3">
-        <v>600</v>
       </c>
       <c r="F48" s="3">
         <v>600</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -2196,7 +2304,7 @@
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2205,13 +2313,16 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2219,31 +2330,31 @@
         <v>4400</v>
       </c>
       <c r="E49" s="3">
-        <v>17900</v>
+        <v>4400</v>
       </c>
       <c r="F49" s="3">
-        <v>16200</v>
+        <v>17800</v>
       </c>
       <c r="G49" s="3">
-        <v>16500</v>
+        <v>16100</v>
       </c>
       <c r="H49" s="3">
+        <v>16400</v>
+      </c>
+      <c r="I49" s="3">
         <v>10300</v>
       </c>
-      <c r="I49" s="3">
-        <v>8500</v>
-      </c>
       <c r="J49" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K49" s="3">
         <v>7700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3700</v>
-      </c>
-      <c r="M49" s="3">
-        <v>1800</v>
       </c>
       <c r="N49" s="3">
         <v>1800</v>
@@ -2251,8 +2362,11 @@
       <c r="O49" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2292,8 +2406,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2333,49 +2450,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
       </c>
       <c r="M52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>300</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2415,49 +2538,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7100</v>
       </c>
-      <c r="E54" s="3">
-        <v>20900</v>
-      </c>
       <c r="F54" s="3">
-        <v>21700</v>
+        <v>20800</v>
       </c>
       <c r="G54" s="3">
-        <v>26900</v>
+        <v>21600</v>
       </c>
       <c r="H54" s="3">
-        <v>23600</v>
+        <v>26700</v>
       </c>
       <c r="I54" s="3">
+        <v>23400</v>
+      </c>
+      <c r="J54" s="3">
         <v>9000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17200</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2473,8 +2602,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2490,177 +2620,190 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5600</v>
+        <v>2200</v>
       </c>
       <c r="E57" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F57" s="3">
         <v>3600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E58" s="3">
         <v>6600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5300</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>1500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
         <v>2400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14600</v>
+        <v>6000</v>
       </c>
       <c r="E60" s="3">
-        <v>11100</v>
+        <v>14500</v>
       </c>
       <c r="F60" s="3">
+        <v>11000</v>
+      </c>
+      <c r="G60" s="3">
         <v>5500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2675,11 +2818,11 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>100</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2693,51 +2836,57 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3">
         <v>2000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1100</v>
       </c>
       <c r="I62" s="3">
         <v>1100</v>
       </c>
       <c r="J62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2777,8 +2926,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2818,8 +2970,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2859,49 +3014,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16600</v>
+        <v>9000</v>
       </c>
       <c r="E66" s="3">
+        <v>16500</v>
+      </c>
+      <c r="F66" s="3">
         <v>12200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4100</v>
       </c>
-      <c r="H66" s="3">
-        <v>4600</v>
-      </c>
       <c r="I66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J66" s="3">
         <v>3900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2917,8 +3078,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2958,8 +3120,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2999,8 +3164,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3040,8 +3208,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3081,49 +3252,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-228100</v>
+        <v>-22300</v>
       </c>
       <c r="E72" s="3">
-        <v>-206800</v>
+        <v>-226700</v>
       </c>
       <c r="F72" s="3">
-        <v>-198900</v>
+        <v>-205500</v>
       </c>
       <c r="G72" s="3">
-        <v>-186700</v>
+        <v>-197700</v>
       </c>
       <c r="H72" s="3">
-        <v>-181900</v>
+        <v>-185600</v>
       </c>
       <c r="I72" s="3">
-        <v>-175900</v>
+        <v>-180800</v>
       </c>
       <c r="J72" s="3">
+        <v>-174800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-173000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-165400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-151800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-152500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-152300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-150000</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3163,8 +3340,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3204,8 +3384,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3245,49 +3428,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-9400</v>
       </c>
-      <c r="E76" s="3">
-        <v>8700</v>
-      </c>
       <c r="F76" s="3">
-        <v>14800</v>
+        <v>8600</v>
       </c>
       <c r="G76" s="3">
-        <v>22700</v>
+        <v>14700</v>
       </c>
       <c r="H76" s="3">
-        <v>19000</v>
+        <v>22600</v>
       </c>
       <c r="I76" s="3">
-        <v>5100</v>
+        <v>18900</v>
       </c>
       <c r="J76" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K76" s="3">
         <v>6800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3327,95 +3516,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-30000</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
-        <v>-8300</v>
+        <v>-29900</v>
       </c>
       <c r="F81" s="3">
-        <v>-11700</v>
+        <v>-8200</v>
       </c>
       <c r="G81" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="H81" s="3">
         <v>-7600</v>
       </c>
-      <c r="H81" s="3">
-        <v>-6300</v>
-      </c>
       <c r="I81" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-3000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3431,23 +3629,24 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
-        <v>100</v>
-      </c>
-      <c r="F83" s="3">
-        <v>100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
@@ -3472,8 +3671,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3513,8 +3715,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3554,8 +3759,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3595,8 +3803,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3636,8 +3847,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3677,49 +3891,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-9800</v>
+      <c r="D89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E89" s="3">
-        <v>-6300</v>
+        <v>5600</v>
       </c>
       <c r="F89" s="3">
-        <v>-9900</v>
+        <v>9100</v>
       </c>
       <c r="G89" s="3">
-        <v>-5600</v>
+        <v>-15400</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-3600</v>
       </c>
-      <c r="I89" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3735,8 +3955,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3762,11 +3983,11 @@
         <v>-1400</v>
       </c>
       <c r="K91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1600</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -3776,8 +3997,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3817,8 +4041,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3858,49 +4085,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-2400</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
-        <v>-1700</v>
+        <v>1500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1700</v>
+        <v>2200</v>
       </c>
       <c r="G94" s="3">
-        <v>-2300</v>
+        <v>-3900</v>
       </c>
       <c r="H94" s="3">
+        <v>400</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L94" s="3">
         <v>-1800</v>
       </c>
-      <c r="I94" s="3">
-        <v>-900</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3916,8 +4149,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3957,8 +4191,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3998,8 +4235,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4039,8 +4279,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4080,70 +4323,76 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>11100</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
         <v>7400</v>
       </c>
-      <c r="F100" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>4400</v>
-      </c>
       <c r="H100" s="3">
-        <v>18000</v>
+        <v>-14800</v>
       </c>
       <c r="I100" s="3">
-        <v>1200</v>
+        <v>19100</v>
       </c>
       <c r="J100" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>8000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="G101" s="3">
         <v>300</v>
       </c>
       <c r="H101" s="3">
+        <v>200</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -4154,53 +4403,59 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-1100</v>
+      <c r="D102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E102" s="3">
-        <v>-700</v>
+        <v>10500</v>
       </c>
       <c r="F102" s="3">
-        <v>-8500</v>
+        <v>10900</v>
       </c>
       <c r="G102" s="3">
-        <v>-3200</v>
+        <v>-11600</v>
       </c>
       <c r="H102" s="3">
-        <v>12700</v>
+        <v>-14300</v>
       </c>
       <c r="I102" s="3">
-        <v>-1500</v>
+        <v>11100</v>
       </c>
       <c r="J102" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-5000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2500</v>
       </c>
     </row>
